--- a/Results/Jonathan/Figure A.xlsx
+++ b/Results/Jonathan/Figure A.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3452212751775104</v>
+        <v>0.3510493741505311</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3451991342614665</v>
+        <v>0.3510269043731067</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3452212751775377</v>
+        <v>0.3510493741505845</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3372602552297688</v>
+        <v>0.3433836552664948</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3452212751775146</v>
+        <v>0.3510493741521556</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3451991342614779</v>
+        <v>0.3510269043764191</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3372602552297603</v>
+        <v>0.3433836552664968</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3452212751775388</v>
+        <v>0.3510493741505747</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3372349444292454</v>
+        <v>0.3085624783210669</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3011720187930431</v>
+        <v>0.3085624783210684</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Jonathan/Figure A.xlsx
+++ b/Results/Jonathan/Figure A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,101 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LL1004</t>
+          <t>AVM051</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3510493741505311</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AVM008</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3510269043731067</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AVM051</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3510493741505845</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AVM003</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3433836552664948</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AVM059</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3510493741521556</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AVM053</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3510269043764191</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AVM052</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3433836552664968</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AVM060</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3510493741505747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AVM056</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.3085624783210669</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AVM061</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3085624783210684</v>
+        <v>3.597522638663911</v>
       </c>
     </row>
   </sheetData>
